--- a/src/main/resources/menBoohooShirt.xlsx
+++ b/src/main/resources/menBoohooShirt.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="135">
-  <si>
-    <t>Category</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="172">
+  <si>
+    <t>Id</t>
   </si>
   <si>
     <t>Image</t>
@@ -32,106 +32,457 @@
     <t>URL</t>
   </si>
   <si>
-    <t>MEN SHIRT</t>
+    <t>men_boohoo_shirt_1</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm62233_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>Boohoo</t>
+  </si>
+  <si>
+    <t>HEART EMBROIDERED T-SHIRT</t>
+  </si>
+  <si>
+    <t>$23.50</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/heart-embroidered-t-shirt/BMM62233.html?color=105</t>
+  </si>
+  <si>
+    <t>men_boohoo_shirt_2</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm68931_purple_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>EDITION OVERSIZED HEAVYWEIGHT PIN TUCK T-SHIRT</t>
+  </si>
+  <si>
+    <t>$21.50</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/edition-oversized-heavyweight-pin-tuck-t-shirt/BMM68931.html?color=156</t>
+  </si>
+  <si>
+    <t>men_boohoo_shirt_3</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm54374_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TECHNICAL STRETCH BOXY SHIRT</t>
+  </si>
+  <si>
+    <t>$26.50</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/technical-stretch-boxy-shirt/BMM54374.html?color=105</t>
+  </si>
+  <si>
+    <t>men_boohoo_shirt_4</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm80545_white_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED BOOHOOMAN PARIS PRINT T-SHIRT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-boohooman-paris-print-t-shirt/BMM80545.html?color=173</t>
+  </si>
+  <si>
+    <t>men_boohoo_shirt_5</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm74350_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED MAN CONTRAST STITCH T-SHIRT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-man-contrast-stitch-t-shirt/BMM74350.html?color=105</t>
+  </si>
+  <si>
+    <t>men_boohoo_shirt_6</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm54773_dusty%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED HEAVY CONQUEST RENAISSANCE T-SHIRT</t>
+  </si>
+  <si>
+    <t>$46.50</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-heavy-conquest-renaissance-t-shirt/BMM54773.html?color=679</t>
+  </si>
+  <si>
+    <t>men_boohoo_shirt_7</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm42159_light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SHORT SLEEVE TEXTURED STRIPE SHIRT</t>
+  </si>
+  <si>
+    <t>$25.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/short-sleeve-textured-stripe-shirt/BMM42159.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_shirt_8</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm65949_taupe_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SHORT SLEEVE REVERE COLOURBLOCK KNITTED SHIRT</t>
+  </si>
+  <si>
+    <t>$20.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/short-sleeve-revere-colourblock-knitted-shirt/BMM65949.html?color=167</t>
+  </si>
+  <si>
+    <t>men_boohoo_shirt_9</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm61307_navy_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>LONG SLEEVE GRANDAD COLLAR MUSCLE SHIRT</t>
+  </si>
+  <si>
+    <t>$30.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/long-sleeve-grandad-collar-muscle-shirt/BMM61307.html?color=148</t>
+  </si>
+  <si>
+    <t>men_boohoo_shirt_10</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm59672_pink_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED BOXY HEAVYWEIGHT INTERLOCK GRAPHIC T-SHIRT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-boxy-heavyweight-interlock-graphic-t-shirt-/BMM59672.html?color=155</t>
+  </si>
+  <si>
+    <t>men_boohoo_shirt_11</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm35833_dark%20grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED RAISED LIMITED TEXT T-SHIRT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-raised-limited-text-t-shirt--/BMM35833.html?color=614</t>
+  </si>
+  <si>
+    <t>men_boohoo_shirt_12</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm76461_white_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
   </si>
   <si>
-    <t>Boohoo</t>
-  </si>
-  <si>
     <t>OVERSIZED X MEN LICENSE T-SHIRT</t>
   </si>
   <si>
-    <t>$25.00</t>
-  </si>
-  <si>
     <t>https://ca.boohoo.com/oversized-x-men-license-t-shirt/BMM76461.html?color=173</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm74350_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED MAN CONTRAST STITCH T-SHIRT</t>
-  </si>
-  <si>
-    <t>$23.50</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-man-contrast-stitch-t-shirt/BMM74350.html?color=105</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm54374_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TECHNICAL STRETCH BOXY SHIRT</t>
-  </si>
-  <si>
-    <t>$30.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/technical-stretch-boxy-shirt/BMM54374.html?color=105</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm58589_washed%20black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>LONG SLEEVE DENIM BASEBALL SHIRT</t>
+    <t>men_boohoo_shirt_13</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm42161_white_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SHORT SLEEVE BOXY LINEN LOOK STRIPE SHIRT</t>
+  </si>
+  <si>
+    <t>$13.50</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/short-sleeve-boxy-linen-look-stripe-shirt/BMM42161.html?color=173</t>
+  </si>
+  <si>
+    <t>men_boohoo_shirt_14</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm76835_white_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL BASIC MUSCLE FIT T-SHIRT</t>
+  </si>
+  <si>
+    <t>$40.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-basic-muscle-fit-t-shirt/BMM76835.html?color=173</t>
+  </si>
+  <si>
+    <t>men_boohoo_shirt_15</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm82575_cobalt_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED LINE DRAWING KNITTED T-SHIRT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-line-drawing-knitted-t-shirt/BMM82575.html?color=119</t>
+  </si>
+  <si>
+    <t>men_boohoo_shirt_16</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm70076_grey%20marl_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>MAN ACTIVE OVERSIZED LA LIFT CLUB T-SHIRT</t>
+  </si>
+  <si>
+    <t>$32.50</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/man-active-oversized-la-lift-club-t-shirt/BMM70076.html?color=265</t>
+  </si>
+  <si>
+    <t>men_boohoo_shirt_17</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm82726_white_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED RENAISSANCE OVER SEAMS T-SHIRT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-renaissance-over-seams-t-shirt-/BMM82726.html?color=173</t>
+  </si>
+  <si>
+    <t>men_boohoo_shirt_18</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm71192_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED FLORIDA GATORS LICENSE T-SHIRT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-florida-gators-license-t-shirt/BMM71192.html?color=105</t>
+  </si>
+  <si>
+    <t>men_boohoo_shirt_19</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm71749_charcoal_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>MAN OVERSIZED ACID WASH T-SHIRT</t>
+  </si>
+  <si>
+    <t>$36.50</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/man-oversized-acid-wash-t-shirt/BMM71749.html?color=115</t>
+  </si>
+  <si>
+    <t>men_boohoo_shirt_20</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm37036_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS AALIYAH PHOTO LICENSE T-SHIRT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-aaliyah-photo-license-t-shirt/BMM37036.html?color=105</t>
+  </si>
+  <si>
+    <t>men_boohoo_shirt_21</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm82045_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS NIRVANA SMILEY FACE OVERDYED LICENSE T-SHIRT</t>
+  </si>
+  <si>
+    <t>$50.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-nirvana-smiley-face-overdyed-license-t-shirt/BMM82045.html?color=131</t>
+  </si>
+  <si>
+    <t>men_boohoo_shirt_22</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm71190_white_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED TIGERS LICENSE T-SHIRT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-tigers-license-t-shirt/BMM71190.html?color=173</t>
+  </si>
+  <si>
+    <t>men_boohoo_shirt_23</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm68109_ice%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERDYED DISTRESSED DENIM OVERSHIRT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/overdyed-distressed-denim-overshirt/BMM68109.html?color=803</t>
+  </si>
+  <si>
+    <t>men_boohoo_shirt_24</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm73157_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>MAN ACTIVE OVERSIZED ACID WASH RAW T-SHIRT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/man-active-oversized-acid-wash-raw-t-shirt/BMM73157.html?color=105</t>
+  </si>
+  <si>
+    <t>men_boohoo_shirt_25</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm80705_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS SHORT SLEEVE OVERSIZED JACQUARD SHIRT IN BLACK</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-short-sleeve-oversized-jacquard-shirt-in-black/BMM80705.html?color=105</t>
+  </si>
+  <si>
+    <t>men_boohoo_shirt_26</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm62203_blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>HEAVY RIB OTTOMAN OVERSIZED T-SHIRT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/heavy-rib-ottoman-oversized-t-shirt/BMM62203.html?color=106</t>
+  </si>
+  <si>
+    <t>men_boohoo_shirt_27</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm75874_taupe_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BOXY JACQUARD KNIT FLORAL DETAIL SHIRT IN TAUPE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/boxy-jacquard-knit-floral-detail-shirt-in-taupe/BMM75874.html?color=167</t>
+  </si>
+  <si>
+    <t>men_boohoo_shirt_28</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm42160_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>DROPPED REVERE LINEN LOOK STRIPE SHIRT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/dropped-revere-linen-look-stripe-shirt-/BMM42160.html?color=124</t>
+  </si>
+  <si>
+    <t>men_boohoo_shirt_29</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm66630_light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>MAN ACTIVE COLOUR BLOCK PANELLED T-SHIRT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/man-active-colour-block-panelled-t-shirt/BMM66630.html?color=564</t>
+  </si>
+  <si>
+    <t>men_boohoo_shirt_30</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm83890_pink_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED OFFICIAL SKULL GRAPHIC T-SHIRT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-official-skull-graphic-t-shirt/BMM83890.html?color=155</t>
+  </si>
+  <si>
+    <t>men_boohoo_shirt_31</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm56532_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED TUPAC LICENSE T-SHIRT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-tupac-license-t-shirt/BMM56532.html?color=105</t>
+  </si>
+  <si>
+    <t>men_boohoo_shirt_32</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm59443_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>LONG SLEEVE GRANDAD COLLAR MUSCLE FIT SHIRT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/long-sleeve-grandad-collar-muscle-fit-shirt/BMM59443.html?color=105</t>
+  </si>
+  <si>
+    <t>men_boohoo_shirt_33</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm70520_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL EDITION HEAVYWEIGHT RIBBED FAUXLAYER T-SHIRT</t>
   </si>
   <si>
     <t>$15.00</t>
   </si>
   <si>
-    <t>https://ca.boohoo.com/long-sleeve-denim-baseball-shirt/BMM58589.html?color=436</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm60884_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL LONG SLEEVE VISCOSE UNICORN BACK SHIRT</t>
-  </si>
-  <si>
-    <t>$26.50</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-long-sleeve-viscose-unicorn-back-shirt/BMM60884.html?color=105</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm80545_white_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED BOOHOOMAN PARIS PRINT T-SHIRT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-boohooman-paris-print-t-shirt/BMM80545.html?color=173</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm82838_light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS OVERSIZED DREAM WORLDWIDE PRINT T-SHIRT IN LIGHT BLUE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-oversized-dream-worldwide-print-t-shirt-in-light-blue/BMM82838.html?color=564</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm71899_white_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS LONGSLEEVE ONE OF ONE EMBROIDERED SHIRT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-longsleeve-one-of-one-embroidered-shirt/BMM71899.html?color=173</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm76115_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL REGULAR FIT COLOUR BLOCK MAN SCRIPT T-SHIRT IN BLACK</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-regular-fit-colour-block-man-script-t-shirt-in-black/BMM76115.html?color=105</t>
+    <t>https://ca.boohoo.com/tall-edition-heavyweight-ribbed-fauxlayer-t-shirt/BMM70520.html?color=105</t>
+  </si>
+  <si>
+    <t>men_boohoo_shirt_34</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm82855_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED OVER SEAMS OFFICIAL GRAPHIC T-SHIRT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-over-seams-official-graphic-t-shirt/BMM82855.html?color=124</t>
+  </si>
+  <si>
+    <t>men_boohoo_shirt_35</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm76817_white_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -143,226 +494,31 @@
     <t>https://ca.boohoo.com/plus-oversized-extended-neck-t-shirt/BMM76817.html?color=173</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm76114_navy_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL REGULAR FIT COLOUR BLOCK MAN SCRIPT T-SHIRT IN NAVY</t>
-  </si>
-  <si>
-    <t>$40.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-regular-fit-colour-block-man-script-t-shirt-in-navy/BMM76114.html?color=148</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm55626_yellow_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL LONG SLEEVE TAKEOVER CHECK SHIRT</t>
-  </si>
-  <si>
-    <t>$37.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-long-sleeve-takeover-check-shirt/BMM55626.html?color=174</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm22980_charcoal_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS LONG SLEEVE BUFFALO CHECK SHIRT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-long-sleeve-buffalo-check-shirt/BMM22980.html</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm65815_green_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>LONG SLEEVE SATIN X RAY SHIRT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/long-sleeve-satin-x-ray-shirt/BMM65815.html</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm79071_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED LIMITED EDITION HEAVYWEIGHT T-SHIRT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-limited-edition-heavyweight-t-shirt/BMM79071.html?color=105</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm79259_blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>ACTIVE OVERSIZED RUNNERS CLUB T-SHIRT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/active-oversized-runners-club-t-shirt/BMM79259.html</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm51311_orange_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>MAN ACTIVE GYM RAGLAN T-SHIRT</t>
-  </si>
-  <si>
-    <t>$50.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/man-active-gym-raglan-t-shirt/BMM51311.html?color=152</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm82575_cobalt_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED LINE DRAWING KNITTED T-SHIRT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-line-drawing-knitted-t-shirt/BMM82575.html?color=119</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm54469_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL PU BOXY ZIP THROUGH SHIRT</t>
-  </si>
-  <si>
-    <t>$22.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-pu-boxy-zip-through-shirt/BMM54469.html</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm74894_white_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>LONG SLEEVE CREW NECK T-SHIRT</t>
-  </si>
-  <si>
-    <t>$27.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/long-sleeve-crew-neck-t-shirt/BMM74894.html</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm65000_pink_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>HOMME SHORT SLEEVE FOOTBALL SHIRT</t>
-  </si>
-  <si>
-    <t>$46.50</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/homme-short-sleeve-football-shirt/BMM65000.html</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm65918_charcoal_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>REGULAR SHARK GRAPHIC WASH GRAPHIC T-SHIRT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/regular-shark-graphic-wash-graphic-t-shirt/BMM65918.html?color=115</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm42161_white_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SHORT SLEEVE BOXY LINEN LOOK STRIPE SHIRT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/short-sleeve-boxy-linen-look-stripe-shirt/BMM42161.html?color=173</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm42159_light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SHORT SLEEVE TEXTURED STRIPE SHIRT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/short-sleeve-textured-stripe-shirt/BMM42159.html</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm74947_stone_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SHORT SLEEVE BOXY OPEN STITCH KNITTED SHIRT IN STONE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/short-sleeve-boxy-open-stitch-knitted-shirt-in-stone/BMM74947.html?color=165</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm54773_dusty%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED HEAVY CONQUEST RENAISSANCE T-SHIRT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-heavy-conquest-renaissance-t-shirt/BMM54773.html?color=679</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm75473_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL OPEN STITCH SHORT SLEEVE KNITTED SHIRT IN BLACK</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-open-stitch-short-sleeve-knitted-shirt-in-black/BMM75473.html?color=105</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm45522_white_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED FLORIDA LICENSE T-SHIRT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-florida-license-t-shirt/BMM45522.html?color=173</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm64420_stone_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL OVERSIZED HEAVYWEIGHT PUFF PRINT T-SHIRT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-oversized-heavyweight-puff-print-t-shirt/BMM64420.html</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm75919_charcoal_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED BOXY OFFICIAL SKULL ACID WASH HEAVYWEIGHT T-SHIRT</t>
-  </si>
-  <si>
-    <t>$32.50</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-boxy-official-skull-acid-wash-heavyweight-t-shirt/BMM75919.html?color=115</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm71883_sage_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL SHORT SLEEVE DROP REVERE BACK EMBROIDERED SHIRT</t>
-  </si>
-  <si>
-    <t>$13.50</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-short-sleeve-drop-revere-back-embroidered-shirt/BMM71883.html?color=209</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm40248_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED OFFICIAL GRAVESTONE GRAPHIC T-SHIRT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-official-gravestone-graphic-t-shirt/BMM40248.html?color=105</t>
+    <t>men_boohoo_shirt_36</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm80190_khaki_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED BOXY OVERDYE WORLDWIDE T-SHIRT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-boxy-overdye-worldwide-t-shirt/BMM80190.html?color=135</t>
+  </si>
+  <si>
+    <t>men_boohoo_shirt_37</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm61343_chocolate_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>LONG SLEEVE BRUSHED FLANNEL CHECK SHIRT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/long-sleeve-brushed-flannel-check-shirt/BMM61343.html?color=186</t>
+  </si>
+  <si>
+    <t>men_boohoo_shirt_38</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm74875_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -372,51 +528,6 @@
   </si>
   <si>
     <t>https://ca.boohoo.com/basic-crew-neck-t-shirt/BMM74875.html?color=105</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm56532_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED TUPAC LICENSE T-SHIRT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-tupac-license-t-shirt/BMM56532.html?color=105</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm77687_taupe_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>LONG SLEEVE OPEN NECK SOFT TWILL SHIRT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/long-sleeve-open-neck-soft-twill-shirt/BMM77687.html?color=167</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm59436_navy_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>LONG SLEEVE SLIM SHIRT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/long-sleeve-slim-shirt/BMM59436.html?color=148</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm57192_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLEATED LONGSLEEVE ZIP UP BOXY SHIRT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/pleated-longsleeve-zip-up-boxy-shirt/BMM57192.html?color=105</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm37036_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS AALIYAH PHOTO LICENSE T-SHIRT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-aaliyah-photo-license-t-shirt/BMM37036.html?color=105</t>
   </si>
 </sst>
 </file>
@@ -509,742 +620,742 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>81</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>84</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>87</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>90</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>96</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>99</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>102</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>105</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>109</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>113</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>116</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="F34" t="s" s="0">
-        <v>119</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>6</v>
+        <v>152</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="F35" t="s" s="0">
-        <v>122</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F36" t="s" s="0">
-        <v>125</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>128</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>6</v>
+        <v>164</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>131</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F39" t="s" s="0">
-        <v>134</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/menBoohooShirt.xlsx
+++ b/src/main/resources/menBoohooShirt.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="168">
   <si>
     <t>Id</t>
   </si>
@@ -113,13 +113,28 @@
     <t>OVERSIZED HEAVY CONQUEST RENAISSANCE T-SHIRT</t>
   </si>
   <si>
+    <t>$25.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-heavy-conquest-renaissance-t-shirt/BMM54773.html?color=679</t>
+  </si>
+  <si>
+    <t>men_boohoo_shirt_7</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm65949_taupe_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SHORT SLEEVE REVERE COLOURBLOCK KNITTED SHIRT</t>
+  </si>
+  <si>
     <t>$46.50</t>
   </si>
   <si>
-    <t>https://ca.boohoo.com/oversized-heavy-conquest-renaissance-t-shirt/BMM54773.html?color=679</t>
-  </si>
-  <si>
-    <t>men_boohoo_shirt_7</t>
+    <t>https://ca.boohoo.com/short-sleeve-revere-colourblock-knitted-shirt/BMM65949.html?color=167</t>
+  </si>
+  <si>
+    <t>men_boohoo_shirt_8</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm42159_light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -128,27 +143,12 @@
     <t>SHORT SLEEVE TEXTURED STRIPE SHIRT</t>
   </si>
   <si>
-    <t>$25.00</t>
+    <t>$20.00</t>
   </si>
   <si>
     <t>https://ca.boohoo.com/short-sleeve-textured-stripe-shirt/BMM42159.html</t>
   </si>
   <si>
-    <t>men_boohoo_shirt_8</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm65949_taupe_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SHORT SLEEVE REVERE COLOURBLOCK KNITTED SHIRT</t>
-  </si>
-  <si>
-    <t>$20.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/short-sleeve-revere-colourblock-knitted-shirt/BMM65949.html?color=167</t>
-  </si>
-  <si>
     <t>men_boohoo_shirt_9</t>
   </si>
   <si>
@@ -434,91 +434,79 @@
     <t>men_boohoo_shirt_31</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm56532_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED TUPAC LICENSE T-SHIRT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-tupac-license-t-shirt/BMM56532.html?color=105</t>
+    <t>https://media.boohoo.com/i/boohoo/bmm59443_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>LONG SLEEVE GRANDAD COLLAR MUSCLE FIT SHIRT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/long-sleeve-grandad-collar-muscle-fit-shirt/BMM59443.html?color=105</t>
   </si>
   <si>
     <t>men_boohoo_shirt_32</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm59443_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>LONG SLEEVE GRANDAD COLLAR MUSCLE FIT SHIRT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/long-sleeve-grandad-collar-muscle-fit-shirt/BMM59443.html?color=105</t>
+    <t>https://media.boohoo.com/i/boohoo/bmm70520_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL EDITION HEAVYWEIGHT RIBBED FAUXLAYER T-SHIRT</t>
+  </si>
+  <si>
+    <t>$15.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-edition-heavyweight-ribbed-fauxlayer-t-shirt/BMM70520.html?color=105</t>
   </si>
   <si>
     <t>men_boohoo_shirt_33</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm70520_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL EDITION HEAVYWEIGHT RIBBED FAUXLAYER T-SHIRT</t>
-  </si>
-  <si>
-    <t>$15.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-edition-heavyweight-ribbed-fauxlayer-t-shirt/BMM70520.html?color=105</t>
+    <t>https://media.boohoo.com/i/boohoo/bmm82855_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED OVER SEAMS OFFICIAL GRAPHIC T-SHIRT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-over-seams-official-graphic-t-shirt/BMM82855.html?color=124</t>
   </si>
   <si>
     <t>men_boohoo_shirt_34</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm82855_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED OVER SEAMS OFFICIAL GRAPHIC T-SHIRT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-over-seams-official-graphic-t-shirt/BMM82855.html?color=124</t>
+    <t>https://media.boohoo.com/i/boohoo/bmm76817_white_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS OVERSIZED EXTENDED NECK T-SHIRT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-oversized-extended-neck-t-shirt/BMM76817.html?color=173</t>
   </si>
   <si>
     <t>men_boohoo_shirt_35</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm76817_white_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS OVERSIZED EXTENDED NECK T-SHIRT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-oversized-extended-neck-t-shirt/BMM76817.html?color=173</t>
+    <t>https://media.boohoo.com/i/boohoo/bmm80190_khaki_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED BOXY OVERDYE WORLDWIDE T-SHIRT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-boxy-overdye-worldwide-t-shirt/BMM80190.html?color=135</t>
   </si>
   <si>
     <t>men_boohoo_shirt_36</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm80190_khaki_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED BOXY OVERDYE WORLDWIDE T-SHIRT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-boxy-overdye-worldwide-t-shirt/BMM80190.html?color=135</t>
+    <t>https://media.boohoo.com/i/boohoo/bmm61343_chocolate_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>LONG SLEEVE BRUSHED FLANNEL CHECK SHIRT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/long-sleeve-brushed-flannel-check-shirt/BMM61343.html?color=186</t>
   </si>
   <si>
     <t>men_boohoo_shirt_37</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm61343_chocolate_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>LONG SLEEVE BRUSHED FLANNEL CHECK SHIRT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/long-sleeve-brushed-flannel-check-shirt/BMM61343.html?color=186</t>
-  </si>
-  <si>
-    <t>men_boohoo_shirt_38</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm74875_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -572,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -812,7 +800,7 @@
         <v>56</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s" s="0">
         <v>57</v>
@@ -832,7 +820,7 @@
         <v>60</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s" s="0">
         <v>61</v>
@@ -1112,7 +1100,7 @@
         <v>121</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F27" t="s" s="0">
         <v>122</v>
@@ -1172,7 +1160,7 @@
         <v>133</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F30" t="s" s="0">
         <v>134</v>
@@ -1192,7 +1180,7 @@
         <v>137</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="F31" t="s" s="0">
         <v>138</v>
@@ -1212,7 +1200,7 @@
         <v>141</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F32" t="s" s="0">
         <v>142</v>
@@ -1232,27 +1220,27 @@
         <v>145</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="F34" t="s" s="0">
         <v>151</v>
@@ -1292,7 +1280,7 @@
         <v>158</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F36" t="s" s="0">
         <v>159</v>
@@ -1312,7 +1300,7 @@
         <v>162</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F37" t="s" s="0">
         <v>163</v>
@@ -1332,30 +1320,10 @@
         <v>166</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="F38" t="s" s="0">
         <v>167</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="0">
-        <v>168</v>
-      </c>
-      <c r="B39" t="s" s="0">
-        <v>169</v>
-      </c>
-      <c r="C39" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D39" t="s" s="0">
-        <v>170</v>
-      </c>
-      <c r="E39" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="F39" t="s" s="0">
-        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/menBoohooShirt.xlsx
+++ b/src/main/resources/menBoohooShirt.xlsx
@@ -32,7 +32,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>men_boohoo_shirt_1</t>
+    <t>men_boohooshirt_1</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm62233_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -50,7 +50,7 @@
     <t>https://ca.boohoo.com/heart-embroidered-t-shirt/BMM62233.html?color=105</t>
   </si>
   <si>
-    <t>men_boohoo_shirt_2</t>
+    <t>men_boohooshirt_2</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm68931_purple_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -65,7 +65,7 @@
     <t>https://ca.boohoo.com/edition-oversized-heavyweight-pin-tuck-t-shirt/BMM68931.html?color=156</t>
   </si>
   <si>
-    <t>men_boohoo_shirt_3</t>
+    <t>men_boohooshirt_3</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm54374_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -80,7 +80,7 @@
     <t>https://ca.boohoo.com/technical-stretch-boxy-shirt/BMM54374.html?color=105</t>
   </si>
   <si>
-    <t>men_boohoo_shirt_4</t>
+    <t>men_boohooshirt_4</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm80545_white_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -92,7 +92,7 @@
     <t>https://ca.boohoo.com/oversized-boohooman-paris-print-t-shirt/BMM80545.html?color=173</t>
   </si>
   <si>
-    <t>men_boohoo_shirt_5</t>
+    <t>men_boohooshirt_5</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm74350_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -104,7 +104,7 @@
     <t>https://ca.boohoo.com/oversized-man-contrast-stitch-t-shirt/BMM74350.html?color=105</t>
   </si>
   <si>
-    <t>men_boohoo_shirt_6</t>
+    <t>men_boohooshirt_6</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm54773_dusty%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -119,7 +119,7 @@
     <t>https://ca.boohoo.com/oversized-heavy-conquest-renaissance-t-shirt/BMM54773.html?color=679</t>
   </si>
   <si>
-    <t>men_boohoo_shirt_7</t>
+    <t>men_boohooshirt_7</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm65949_taupe_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -134,7 +134,7 @@
     <t>https://ca.boohoo.com/short-sleeve-revere-colourblock-knitted-shirt/BMM65949.html?color=167</t>
   </si>
   <si>
-    <t>men_boohoo_shirt_8</t>
+    <t>men_boohooshirt_8</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm42159_light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -149,7 +149,7 @@
     <t>https://ca.boohoo.com/short-sleeve-textured-stripe-shirt/BMM42159.html</t>
   </si>
   <si>
-    <t>men_boohoo_shirt_9</t>
+    <t>men_boohooshirt_9</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm61307_navy_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -164,7 +164,7 @@
     <t>https://ca.boohoo.com/long-sleeve-grandad-collar-muscle-shirt/BMM61307.html?color=148</t>
   </si>
   <si>
-    <t>men_boohoo_shirt_10</t>
+    <t>men_boohooshirt_10</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm59672_pink_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -176,7 +176,7 @@
     <t>https://ca.boohoo.com/oversized-boxy-heavyweight-interlock-graphic-t-shirt-/BMM59672.html?color=155</t>
   </si>
   <si>
-    <t>men_boohoo_shirt_11</t>
+    <t>men_boohooshirt_11</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm35833_dark%20grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -188,7 +188,7 @@
     <t>https://ca.boohoo.com/oversized-raised-limited-text-t-shirt--/BMM35833.html?color=614</t>
   </si>
   <si>
-    <t>men_boohoo_shirt_12</t>
+    <t>men_boohooshirt_12</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm76461_white_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -200,7 +200,7 @@
     <t>https://ca.boohoo.com/oversized-x-men-license-t-shirt/BMM76461.html?color=173</t>
   </si>
   <si>
-    <t>men_boohoo_shirt_13</t>
+    <t>men_boohooshirt_13</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm42161_white_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -215,7 +215,7 @@
     <t>https://ca.boohoo.com/short-sleeve-boxy-linen-look-stripe-shirt/BMM42161.html?color=173</t>
   </si>
   <si>
-    <t>men_boohoo_shirt_14</t>
+    <t>men_boohooshirt_14</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm76835_white_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -230,7 +230,7 @@
     <t>https://ca.boohoo.com/tall-basic-muscle-fit-t-shirt/BMM76835.html?color=173</t>
   </si>
   <si>
-    <t>men_boohoo_shirt_15</t>
+    <t>men_boohooshirt_15</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm82575_cobalt_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -242,7 +242,7 @@
     <t>https://ca.boohoo.com/oversized-line-drawing-knitted-t-shirt/BMM82575.html?color=119</t>
   </si>
   <si>
-    <t>men_boohoo_shirt_16</t>
+    <t>men_boohooshirt_16</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm70076_grey%20marl_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -257,7 +257,7 @@
     <t>https://ca.boohoo.com/man-active-oversized-la-lift-club-t-shirt/BMM70076.html?color=265</t>
   </si>
   <si>
-    <t>men_boohoo_shirt_17</t>
+    <t>men_boohooshirt_17</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm82726_white_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -269,7 +269,7 @@
     <t>https://ca.boohoo.com/oversized-renaissance-over-seams-t-shirt-/BMM82726.html?color=173</t>
   </si>
   <si>
-    <t>men_boohoo_shirt_18</t>
+    <t>men_boohooshirt_18</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm71192_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -281,7 +281,7 @@
     <t>https://ca.boohoo.com/oversized-florida-gators-license-t-shirt/BMM71192.html?color=105</t>
   </si>
   <si>
-    <t>men_boohoo_shirt_19</t>
+    <t>men_boohooshirt_19</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm71749_charcoal_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -296,7 +296,7 @@
     <t>https://ca.boohoo.com/man-oversized-acid-wash-t-shirt/BMM71749.html?color=115</t>
   </si>
   <si>
-    <t>men_boohoo_shirt_20</t>
+    <t>men_boohooshirt_20</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm37036_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -308,7 +308,7 @@
     <t>https://ca.boohoo.com/plus-aaliyah-photo-license-t-shirt/BMM37036.html?color=105</t>
   </si>
   <si>
-    <t>men_boohoo_shirt_21</t>
+    <t>men_boohooshirt_21</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm82045_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -323,7 +323,7 @@
     <t>https://ca.boohoo.com/plus-nirvana-smiley-face-overdyed-license-t-shirt/BMM82045.html?color=131</t>
   </si>
   <si>
-    <t>men_boohoo_shirt_22</t>
+    <t>men_boohooshirt_22</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm71190_white_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -335,7 +335,7 @@
     <t>https://ca.boohoo.com/oversized-tigers-license-t-shirt/BMM71190.html?color=173</t>
   </si>
   <si>
-    <t>men_boohoo_shirt_23</t>
+    <t>men_boohooshirt_23</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm68109_ice%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -347,7 +347,7 @@
     <t>https://ca.boohoo.com/overdyed-distressed-denim-overshirt/BMM68109.html?color=803</t>
   </si>
   <si>
-    <t>men_boohoo_shirt_24</t>
+    <t>men_boohooshirt_24</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm73157_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -359,7 +359,7 @@
     <t>https://ca.boohoo.com/man-active-oversized-acid-wash-raw-t-shirt/BMM73157.html?color=105</t>
   </si>
   <si>
-    <t>men_boohoo_shirt_25</t>
+    <t>men_boohooshirt_25</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm80705_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -371,7 +371,7 @@
     <t>https://ca.boohoo.com/plus-short-sleeve-oversized-jacquard-shirt-in-black/BMM80705.html?color=105</t>
   </si>
   <si>
-    <t>men_boohoo_shirt_26</t>
+    <t>men_boohooshirt_26</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm62203_blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -383,7 +383,7 @@
     <t>https://ca.boohoo.com/heavy-rib-ottoman-oversized-t-shirt/BMM62203.html?color=106</t>
   </si>
   <si>
-    <t>men_boohoo_shirt_27</t>
+    <t>men_boohooshirt_27</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm75874_taupe_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -395,7 +395,7 @@
     <t>https://ca.boohoo.com/boxy-jacquard-knit-floral-detail-shirt-in-taupe/BMM75874.html?color=167</t>
   </si>
   <si>
-    <t>men_boohoo_shirt_28</t>
+    <t>men_boohooshirt_28</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm42160_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -407,7 +407,7 @@
     <t>https://ca.boohoo.com/dropped-revere-linen-look-stripe-shirt-/BMM42160.html?color=124</t>
   </si>
   <si>
-    <t>men_boohoo_shirt_29</t>
+    <t>men_boohooshirt_29</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm66630_light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -419,7 +419,7 @@
     <t>https://ca.boohoo.com/man-active-colour-block-panelled-t-shirt/BMM66630.html?color=564</t>
   </si>
   <si>
-    <t>men_boohoo_shirt_30</t>
+    <t>men_boohooshirt_30</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm83890_pink_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -431,7 +431,7 @@
     <t>https://ca.boohoo.com/oversized-official-skull-graphic-t-shirt/BMM83890.html?color=155</t>
   </si>
   <si>
-    <t>men_boohoo_shirt_31</t>
+    <t>men_boohooshirt_31</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm59443_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -443,7 +443,7 @@
     <t>https://ca.boohoo.com/long-sleeve-grandad-collar-muscle-fit-shirt/BMM59443.html?color=105</t>
   </si>
   <si>
-    <t>men_boohoo_shirt_32</t>
+    <t>men_boohooshirt_32</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm70520_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -458,7 +458,7 @@
     <t>https://ca.boohoo.com/tall-edition-heavyweight-ribbed-fauxlayer-t-shirt/BMM70520.html?color=105</t>
   </si>
   <si>
-    <t>men_boohoo_shirt_33</t>
+    <t>men_boohooshirt_33</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm82855_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -470,7 +470,7 @@
     <t>https://ca.boohoo.com/oversized-over-seams-official-graphic-t-shirt/BMM82855.html?color=124</t>
   </si>
   <si>
-    <t>men_boohoo_shirt_34</t>
+    <t>men_boohooshirt_34</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm76817_white_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -482,19 +482,7 @@
     <t>https://ca.boohoo.com/plus-oversized-extended-neck-t-shirt/BMM76817.html?color=173</t>
   </si>
   <si>
-    <t>men_boohoo_shirt_35</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm80190_khaki_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED BOXY OVERDYE WORLDWIDE T-SHIRT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-boxy-overdye-worldwide-t-shirt/BMM80190.html?color=135</t>
-  </si>
-  <si>
-    <t>men_boohoo_shirt_36</t>
+    <t>men_boohooshirt_35</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm61343_chocolate_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -506,7 +494,7 @@
     <t>https://ca.boohoo.com/long-sleeve-brushed-flannel-check-shirt/BMM61343.html?color=186</t>
   </si>
   <si>
-    <t>men_boohoo_shirt_37</t>
+    <t>men_boohooshirt_36</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm74875_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -516,6 +504,18 @@
   </si>
   <si>
     <t>https://ca.boohoo.com/basic-crew-neck-t-shirt/BMM74875.html?color=105</t>
+  </si>
+  <si>
+    <t>men_boohooshirt_37</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm70680_slate_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BOXY CORD SHIRT IN SLATE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/boxy-cord-shirt-in-slate/BMM70680.html?color=212</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +1260,7 @@
         <v>154</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F35" t="s" s="0">
         <v>155</v>
@@ -1280,7 +1280,7 @@
         <v>158</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F36" t="s" s="0">
         <v>159</v>
@@ -1300,7 +1300,7 @@
         <v>162</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="F37" t="s" s="0">
         <v>163</v>
